--- a/data/pca/factorExposure/factorExposure_2013-04-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-04-19.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>4.575768672978629e-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001845812806111514</v>
+      </c>
+      <c r="C2">
+        <v>0.03255368925652733</v>
+      </c>
+      <c r="D2">
+        <v>-0.007554266554147857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001820179032863663</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006109320605397225</v>
+      </c>
+      <c r="C4">
+        <v>0.08598186226792635</v>
+      </c>
+      <c r="D4">
+        <v>-0.07718207491019768</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.001033760139139072</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01348218173972952</v>
+      </c>
+      <c r="C6">
+        <v>0.1088779786357786</v>
+      </c>
+      <c r="D6">
+        <v>-0.03525600926921311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.002078154880605066</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004670518877113695</v>
+      </c>
+      <c r="C7">
+        <v>0.05448643965226881</v>
+      </c>
+      <c r="D7">
+        <v>-0.03471854510612218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.000136751394495474</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005573053358137488</v>
+      </c>
+      <c r="C8">
+        <v>0.03697265702721605</v>
+      </c>
+      <c r="D8">
+        <v>-0.03760667515213014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003831401853444677</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004102043553303918</v>
+      </c>
+      <c r="C9">
+        <v>0.07011546287892516</v>
+      </c>
+      <c r="D9">
+        <v>-0.07230119803165413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004442815398793157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005593304394025576</v>
+      </c>
+      <c r="C10">
+        <v>0.06986868758465679</v>
+      </c>
+      <c r="D10">
+        <v>0.2109473916296948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.003525325170067832</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005339903627942766</v>
+      </c>
+      <c r="C11">
+        <v>0.07879909758633387</v>
+      </c>
+      <c r="D11">
+        <v>-0.06551169960136906</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0001380220503125517</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003975298308341277</v>
+      </c>
+      <c r="C12">
+        <v>0.06341661722350737</v>
+      </c>
+      <c r="D12">
+        <v>-0.04832786454490549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.003025495730926747</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008382979338911238</v>
+      </c>
+      <c r="C13">
+        <v>0.0651907500390639</v>
+      </c>
+      <c r="D13">
+        <v>-0.06786746980041793</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.001774950005268904</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001454316244711826</v>
+      </c>
+      <c r="C14">
+        <v>0.04667331630738558</v>
+      </c>
+      <c r="D14">
+        <v>-0.0099482854107882</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001110874873809358</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005900128189139631</v>
+      </c>
+      <c r="C15">
+        <v>0.04130658227796622</v>
+      </c>
+      <c r="D15">
+        <v>-0.03171269301088616</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.001752346861485825</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004911020521178674</v>
+      </c>
+      <c r="C16">
+        <v>0.06529928713249145</v>
+      </c>
+      <c r="D16">
+        <v>-0.04944646440544882</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>7.466067461117852e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008909840759289559</v>
+      </c>
+      <c r="C20">
+        <v>0.06546000029834655</v>
+      </c>
+      <c r="D20">
+        <v>-0.05417995258553758</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005365995298601763</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009872827862607719</v>
+      </c>
+      <c r="C21">
+        <v>0.02281119794469173</v>
+      </c>
+      <c r="D21">
+        <v>-0.03465781401192875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01693850472556838</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006911031323875674</v>
+      </c>
+      <c r="C22">
+        <v>0.09307605279938796</v>
+      </c>
+      <c r="D22">
+        <v>-0.1027859235169794</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01726049559205839</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006726713049841129</v>
+      </c>
+      <c r="C23">
+        <v>0.09388141167207595</v>
+      </c>
+      <c r="D23">
+        <v>-0.1032781469432994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.002315182390936492</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004938653106475918</v>
+      </c>
+      <c r="C24">
+        <v>0.07333400540848603</v>
+      </c>
+      <c r="D24">
+        <v>-0.06165444342596098</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.00429475291842281</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002723136050410377</v>
+      </c>
+      <c r="C25">
+        <v>0.07721362346637722</v>
+      </c>
+      <c r="D25">
+        <v>-0.06646406739860534</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.006411823443029205</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.00370680442023681</v>
+      </c>
+      <c r="C26">
+        <v>0.04273355395015312</v>
+      </c>
+      <c r="D26">
+        <v>-0.028459675600397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.005375707209432072</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.000551698671356914</v>
+      </c>
+      <c r="C28">
+        <v>0.1188922441173766</v>
+      </c>
+      <c r="D28">
+        <v>0.310645183004518</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001541679301249201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003095127938546504</v>
+      </c>
+      <c r="C29">
+        <v>0.04953426791841652</v>
+      </c>
+      <c r="D29">
+        <v>-0.008177008479546622</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.004043003203379018</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.00873214524773782</v>
+      </c>
+      <c r="C30">
+        <v>0.1392742469210903</v>
+      </c>
+      <c r="D30">
+        <v>-0.1054752434039782</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0001189327950514746</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006129610749309803</v>
+      </c>
+      <c r="C31">
+        <v>0.04545469098172759</v>
+      </c>
+      <c r="D31">
+        <v>-0.03067467437056814</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.000915568656786787</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003984185854193596</v>
+      </c>
+      <c r="C32">
+        <v>0.03957749776134955</v>
+      </c>
+      <c r="D32">
+        <v>-0.01939394471594662</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.003311572753910438</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007923533666359728</v>
+      </c>
+      <c r="C33">
+        <v>0.08449030732277003</v>
+      </c>
+      <c r="D33">
+        <v>-0.07546482374810051</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004800566772719271</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003773002371521582</v>
+      </c>
+      <c r="C34">
+        <v>0.05761613624899289</v>
+      </c>
+      <c r="D34">
+        <v>-0.04708796337517081</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.003094928373684765</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004761151546354953</v>
+      </c>
+      <c r="C35">
+        <v>0.03905465545640227</v>
+      </c>
+      <c r="D35">
+        <v>-0.01356884302328056</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.004182386115107218</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001379038841210185</v>
+      </c>
+      <c r="C36">
+        <v>0.02430226084546356</v>
+      </c>
+      <c r="D36">
+        <v>-0.02244509889801793</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002026220718881669</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009520400974071402</v>
+      </c>
+      <c r="C38">
+        <v>0.03455082445477379</v>
+      </c>
+      <c r="D38">
+        <v>-0.01991463135796353</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01337117906194104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0009422621186819532</v>
+      </c>
+      <c r="C39">
+        <v>0.1159461640621235</v>
+      </c>
+      <c r="D39">
+        <v>-0.08165952873590251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009793645902457189</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.001972366483914353</v>
+      </c>
+      <c r="C40">
+        <v>0.08520799232634672</v>
+      </c>
+      <c r="D40">
+        <v>-0.02029536153025899</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0004149504091374509</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007278307349897888</v>
+      </c>
+      <c r="C41">
+        <v>0.03875145693679662</v>
+      </c>
+      <c r="D41">
+        <v>-0.03521027957624674</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003250211361437888</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003536861232975035</v>
+      </c>
+      <c r="C43">
+        <v>0.05099864927327694</v>
+      </c>
+      <c r="D43">
+        <v>-0.02524951807436763</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.003279779595953164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003371761108723005</v>
+      </c>
+      <c r="C44">
+        <v>0.1108374519405418</v>
+      </c>
+      <c r="D44">
+        <v>-0.08070488542853126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.001827409472482894</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002278745587475501</v>
+      </c>
+      <c r="C46">
+        <v>0.03457745669066532</v>
+      </c>
+      <c r="D46">
+        <v>-0.02962082570553545</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0009201694461406038</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002633796415671389</v>
+      </c>
+      <c r="C47">
+        <v>0.03826709041897011</v>
+      </c>
+      <c r="D47">
+        <v>-0.02345603692383879</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003123922735420635</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006350471842969813</v>
+      </c>
+      <c r="C48">
+        <v>0.02842352204487391</v>
+      </c>
+      <c r="D48">
+        <v>-0.03404403958385101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01465520877698457</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01447019635594307</v>
+      </c>
+      <c r="C49">
+        <v>0.1751848205740044</v>
+      </c>
+      <c r="D49">
+        <v>-0.02288532522817907</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001457474688506965</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003561741949702249</v>
+      </c>
+      <c r="C50">
+        <v>0.0430678632159979</v>
+      </c>
+      <c r="D50">
+        <v>-0.0359756794186895</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.001099384100552979</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004247609940646152</v>
+      </c>
+      <c r="C51">
+        <v>0.02141751102511382</v>
+      </c>
+      <c r="D51">
+        <v>-0.03157425670622539</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.0002370847893841714</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02013251492280156</v>
+      </c>
+      <c r="C53">
+        <v>0.1672016787968608</v>
+      </c>
+      <c r="D53">
+        <v>-0.04399808358933149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.0007155899419839799</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008663777157022462</v>
+      </c>
+      <c r="C54">
+        <v>0.05567908373350158</v>
+      </c>
+      <c r="D54">
+        <v>-0.04179090676821869</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.004036771603241032</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009193539141532255</v>
+      </c>
+      <c r="C55">
+        <v>0.1068334742791689</v>
+      </c>
+      <c r="D55">
+        <v>-0.05153508731705014</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.002709356568196043</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01966388387167908</v>
+      </c>
+      <c r="C56">
+        <v>0.1738640330979905</v>
+      </c>
+      <c r="D56">
+        <v>-0.04478881808112841</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.007845338481718712</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.0192331577565119</v>
+      </c>
+      <c r="C58">
+        <v>0.105532781772482</v>
+      </c>
+      <c r="D58">
+        <v>-0.06611379838731828</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.006773343029409278</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009432259518248295</v>
+      </c>
+      <c r="C59">
+        <v>0.1671665738549665</v>
+      </c>
+      <c r="D59">
+        <v>0.2900034160958834</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.004486893814728487</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02341930346422912</v>
+      </c>
+      <c r="C60">
+        <v>0.2223521106386403</v>
+      </c>
+      <c r="D60">
+        <v>-0.02930336808791803</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01505945181558689</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002015763249493728</v>
+      </c>
+      <c r="C61">
+        <v>0.09490168710968197</v>
+      </c>
+      <c r="D61">
+        <v>-0.06055443699746117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1706083462893756</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1437315462203049</v>
+      </c>
+      <c r="C62">
+        <v>0.08245590763505664</v>
+      </c>
+      <c r="D62">
+        <v>-0.05130627034262122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001621491991828534</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.0063862238819416</v>
+      </c>
+      <c r="C63">
+        <v>0.05989936071316396</v>
+      </c>
+      <c r="D63">
+        <v>-0.02410364297234652</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.005945329330398968</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01484810558418913</v>
+      </c>
+      <c r="C64">
+        <v>0.1035001970767492</v>
+      </c>
+      <c r="D64">
+        <v>-0.06259877629127214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.001521932637723314</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01714998087054771</v>
+      </c>
+      <c r="C65">
+        <v>0.1165672255654145</v>
+      </c>
+      <c r="D65">
+        <v>-0.02279803847356645</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.008783623152786546</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01240811284398992</v>
+      </c>
+      <c r="C66">
+        <v>0.1570946248868881</v>
+      </c>
+      <c r="D66">
+        <v>-0.1188012480793358</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003427562610958887</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01562048376242508</v>
+      </c>
+      <c r="C67">
+        <v>0.06495060893752337</v>
+      </c>
+      <c r="D67">
+        <v>-0.03050811136536908</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.006613932719185932</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0009977560840338986</v>
+      </c>
+      <c r="C68">
+        <v>0.09982069666490681</v>
+      </c>
+      <c r="D68">
+        <v>0.2580644861192962</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.00305472927684445</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005791758226896342</v>
+      </c>
+      <c r="C69">
+        <v>0.0487618008648029</v>
+      </c>
+      <c r="D69">
+        <v>-0.04256918354719182</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>2.255494879982806e-06</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001759756041314655</v>
+      </c>
+      <c r="C70">
+        <v>0.002118754826911076</v>
+      </c>
+      <c r="D70">
+        <v>-0.001974581711296453</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.001404324269525758</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006052536946601616</v>
+      </c>
+      <c r="C71">
+        <v>0.1049256293938738</v>
+      </c>
+      <c r="D71">
+        <v>0.2845553101758749</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.005763188361744833</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01542544230205503</v>
+      </c>
+      <c r="C72">
+        <v>0.1487649639795777</v>
+      </c>
+      <c r="D72">
+        <v>-0.02153832421637625</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01181415993611643</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02931957023926312</v>
+      </c>
+      <c r="C73">
+        <v>0.2806126380282544</v>
+      </c>
+      <c r="D73">
+        <v>-0.04463391284379896</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.005132851914033396</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001229069305977319</v>
+      </c>
+      <c r="C74">
+        <v>0.1037928044172386</v>
+      </c>
+      <c r="D74">
+        <v>-0.04566480424799617</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.004134116784927763</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01072080781214288</v>
+      </c>
+      <c r="C75">
+        <v>0.1320507005993483</v>
+      </c>
+      <c r="D75">
+        <v>-0.02602246188751986</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.009138371274971377</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02117419305884807</v>
+      </c>
+      <c r="C76">
+        <v>0.1492597009694527</v>
+      </c>
+      <c r="D76">
+        <v>-0.06922945406803097</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-1.007530971934546e-05</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02394346861687652</v>
+      </c>
+      <c r="C77">
+        <v>0.1308055528238054</v>
+      </c>
+      <c r="D77">
+        <v>-0.06738451897685031</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.001645694326852691</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01421196608273239</v>
+      </c>
+      <c r="C78">
+        <v>0.09346993189803726</v>
+      </c>
+      <c r="D78">
+        <v>-0.0697074139986799</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02410093543054721</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03701837214312738</v>
+      </c>
+      <c r="C79">
+        <v>0.157385745932328</v>
+      </c>
+      <c r="D79">
+        <v>-0.03325154120117366</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.004840689516003878</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01041092638777575</v>
+      </c>
+      <c r="C80">
+        <v>0.04108116123115224</v>
+      </c>
+      <c r="D80">
+        <v>-0.03292783546420943</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0006892293809609639</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01458254688254659</v>
+      </c>
+      <c r="C81">
+        <v>0.1243753607971448</v>
+      </c>
+      <c r="D81">
+        <v>-0.05589316208061162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.005515657661095481</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01934702902756588</v>
+      </c>
+      <c r="C82">
+        <v>0.1433190714992132</v>
+      </c>
+      <c r="D82">
+        <v>-0.04505246874234053</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008933865602783893</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009921338377647079</v>
+      </c>
+      <c r="C83">
+        <v>0.05508515862757948</v>
+      </c>
+      <c r="D83">
+        <v>-0.05069990270003846</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01248185358806585</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.0115811951785859</v>
+      </c>
+      <c r="C84">
+        <v>0.0353984146736048</v>
+      </c>
+      <c r="D84">
+        <v>0.008088953708623425</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01503160597955273</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02786899625374166</v>
+      </c>
+      <c r="C85">
+        <v>0.129831028978233</v>
+      </c>
+      <c r="D85">
+        <v>-0.04726667459223712</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.001210109794800737</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005397865320538586</v>
+      </c>
+      <c r="C86">
+        <v>0.04818495076020978</v>
+      </c>
+      <c r="D86">
+        <v>-0.02208023179871757</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.005379197938087415</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01003882939732804</v>
+      </c>
+      <c r="C87">
+        <v>0.129417879965658</v>
+      </c>
+      <c r="D87">
+        <v>-0.07263383122193247</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01302126259240935</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002909353926181495</v>
+      </c>
+      <c r="C88">
+        <v>0.06831719404641722</v>
+      </c>
+      <c r="D88">
+        <v>-0.01371457706601801</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01518449936276566</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001234812639136532</v>
+      </c>
+      <c r="C89">
+        <v>0.1559395368739503</v>
+      </c>
+      <c r="D89">
+        <v>0.3438643570361691</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.002986343543498766</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007272412603306422</v>
+      </c>
+      <c r="C90">
+        <v>0.1368518109937249</v>
+      </c>
+      <c r="D90">
+        <v>0.3259858784222512</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.0006541112880199749</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01019258620201503</v>
+      </c>
+      <c r="C91">
+        <v>0.1047094338125887</v>
+      </c>
+      <c r="D91">
+        <v>-0.02220121297887109</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.008596348978048571</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0007581096590029377</v>
+      </c>
+      <c r="C92">
+        <v>0.1438997876947079</v>
+      </c>
+      <c r="D92">
+        <v>0.3294726467501548</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0009022661221792246</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.00505340401371053</v>
+      </c>
+      <c r="C93">
+        <v>0.1161105784766519</v>
+      </c>
+      <c r="D93">
+        <v>0.3134152374759265</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.003176057478189572</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02229220541403382</v>
+      </c>
+      <c r="C94">
+        <v>0.1562582252894417</v>
+      </c>
+      <c r="D94">
+        <v>-0.03735641313013525</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.00495952256359146</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01593432483298866</v>
+      </c>
+      <c r="C95">
+        <v>0.125284771216797</v>
+      </c>
+      <c r="D95">
+        <v>-0.06323842156309578</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001535514231170709</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03400864315977242</v>
+      </c>
+      <c r="C97">
+        <v>0.1811824779680798</v>
+      </c>
+      <c r="D97">
+        <v>-0.02854595881762676</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.004108258159940744</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03633994757488649</v>
+      </c>
+      <c r="C98">
+        <v>0.2508601162931927</v>
+      </c>
+      <c r="D98">
+        <v>-0.04865851858665757</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.983345007628888</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9827292887360565</v>
+      </c>
+      <c r="C99">
+        <v>-0.1108124996868912</v>
+      </c>
+      <c r="D99">
+        <v>0.03007521993801995</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001499216117737534</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003139569534772603</v>
+      </c>
+      <c r="C101">
+        <v>0.04957217643006104</v>
+      </c>
+      <c r="D101">
+        <v>-0.008580147480720113</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
